--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/4.TraBH/TBH211008_VNPTKhanhHoa.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang10/4.TraBH/TBH211008_VNPTKhanhHoa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -98,21 +98,12 @@
     <t>TG102LE</t>
   </si>
   <si>
-    <t>Còn BH</t>
-  </si>
-  <si>
     <t>Người đại diện: VNPT Khánh Hòa</t>
   </si>
   <si>
     <t>sim+dây nguồn</t>
   </si>
   <si>
-    <t>Xử lý phần cứng, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>Thiết bị lỗi nguồn</t>
-  </si>
-  <si>
     <t>TG102SE</t>
   </si>
   <si>
@@ -125,7 +116,10 @@
     <t>Không khắc phục được</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 12 tháng 10 năm 2021</t>
+    <t>Hà Nội, ngày 21 tháng 10 năm 2021</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn, hỏng linh kiện, lỗi mạch</t>
   </si>
 </sst>
 </file>
@@ -699,6 +693,57 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -752,57 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1160,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1181,77 +1175,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="36" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="36" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="39" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
@@ -1260,58 +1254,58 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="B7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
       <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1347,79 +1341,79 @@
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
+      <c r="A12" s="33">
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="32">
         <v>861694031766676</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+      <c r="A13" s="33">
         <v>2</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="32">
         <v>861694031767369</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="33">
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="32">
-        <v>868183034695606</v>
+        <v>868183034681739</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
@@ -1443,26 +1437,26 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="G16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -1507,45 +1501,45 @@
       <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
     </row>
     <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B7:I7"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
